--- a/Tecnicos.xlsx
+++ b/Tecnicos.xlsx
@@ -1,92 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kako/Library/Mobile Documents/com~apple~CloudDocs/WorkSpace/GitHub/Mundo1-MC-Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54CAF45-9633-904E-884A-334226891C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Sobrenome</t>
-  </si>
-  <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>MANHA</t>
-  </si>
-  <si>
-    <t>Noite</t>
-  </si>
-  <si>
-    <t>TEAM1</t>
-  </si>
-  <si>
-    <t>TEAM2</t>
-  </si>
-  <si>
-    <t>TEAM3</t>
-  </si>
-  <si>
-    <t>TEAM4</t>
-  </si>
-  <si>
-    <t>99999999</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>11111111111</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,24 +74,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -431,62 +438,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col width="11.83203125" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sobrenome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MANHA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Noite</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>99999999</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11111111111</t>
+        </is>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -504,6 +543,46 @@
         <v>0</v>
       </c>
       <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>000000001111</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Teste 3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ssssss</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Tecnicos.xlsx
+++ b/Tecnicos.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -586,6 +586,46 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11111111111111111</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tecnicos.xlsx
+++ b/Tecnicos.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -626,6 +626,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tecnicos.xlsx
+++ b/Tecnicos.xlsx
@@ -626,7 +626,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tecnicos.xlsx
+++ b/Tecnicos.xlsx
@@ -1,40 +1,143 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kako/Library/Mobile Documents/com~apple~CloudDocs/WorkSpace/GitHub/Mundo1-MC-Python/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44F5544-7C2F-5249-A7BC-C5CE088E214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Sobrenome</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Noite</t>
+  </si>
+  <si>
+    <t>TEAM1</t>
+  </si>
+  <si>
+    <t>TEAM2</t>
+  </si>
+  <si>
+    <t>TEAM3</t>
+  </si>
+  <si>
+    <t>TEAM4</t>
+  </si>
+  <si>
+    <t>Manha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raquel </t>
+  </si>
+  <si>
+    <t>Silveira</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Araujo</t>
+  </si>
+  <si>
+    <t>Cunha</t>
+  </si>
+  <si>
+    <t>Viana</t>
+  </si>
+  <si>
+    <t>Conceição</t>
+  </si>
+  <si>
+    <t>Cardoso</t>
+  </si>
+  <si>
+    <t>Souza</t>
+  </si>
+  <si>
+    <t>Mota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas </t>
+  </si>
+  <si>
+    <t>Alícia</t>
+  </si>
+  <si>
+    <t>Ana Lívia</t>
+  </si>
+  <si>
+    <t>Lucas Gabriel</t>
+  </si>
+  <si>
+    <t>Davi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Lucas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maysa</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -74,83 +177,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,212 +482,312 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J10" sqref="A2:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="11.83203125" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CPF</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nome</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sobrenome</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Telefone</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MANHA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Noite</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TEAM1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>TEAM2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>TEAM3</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>TEAM4</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>99999999</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11111111111</t>
-        </is>
-      </c>
-      <c r="E2" t="b">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>000000001111</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Teste 3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sss</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ssssss</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>11111111111111111</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>39889009675</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>851234567</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>35646378432</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>851234568</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>12309856743</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>851234569</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>97756437623</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>851234570</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>82764325782</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>851234571</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>98734523483</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>851234572</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>98732145632</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>851234573</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>98732145633</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>851234574</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>98732145634</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>851234575</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Tecnicos.xlsx
+++ b/Tecnicos.xlsx
@@ -1,143 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kako/Library/Mobile Documents/com~apple~CloudDocs/WorkSpace/GitHub/Mundo1-MC-Python/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44F5544-7C2F-5249-A7BC-C5CE088E214C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>Sobrenome</t>
-  </si>
-  <si>
-    <t>Telefone</t>
-  </si>
-  <si>
-    <t>Noite</t>
-  </si>
-  <si>
-    <t>TEAM1</t>
-  </si>
-  <si>
-    <t>TEAM2</t>
-  </si>
-  <si>
-    <t>TEAM3</t>
-  </si>
-  <si>
-    <t>TEAM4</t>
-  </si>
-  <si>
-    <t>Manha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raquel </t>
-  </si>
-  <si>
-    <t>Silveira</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Araujo</t>
-  </si>
-  <si>
-    <t>Cunha</t>
-  </si>
-  <si>
-    <t>Viana</t>
-  </si>
-  <si>
-    <t>Conceição</t>
-  </si>
-  <si>
-    <t>Cardoso</t>
-  </si>
-  <si>
-    <t>Souza</t>
-  </si>
-  <si>
-    <t>Mota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolas </t>
-  </si>
-  <si>
-    <t>Alícia</t>
-  </si>
-  <si>
-    <t>Ana Lívia</t>
-  </si>
-  <si>
-    <t>Lucas Gabriel</t>
-  </si>
-  <si>
-    <t>Davi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Lucas </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Maysa</t>
-  </si>
-  <si>
-    <t>Raul</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,24 +74,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -482,314 +438,465 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="A2:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col width="14.1640625" customWidth="1" min="1" max="1"/>
+    <col width="21.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.83203125" customWidth="1" min="3" max="3"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CPF</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nome</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sobrenome</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Telefone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Manha</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Noite</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TEAM4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>39889009675</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raquel </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Silveira</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>851234567</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>35646378432</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Raul</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>851234568</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>12309856743</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maysa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Araujo</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>851234569</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>97756437623</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pedro Lucas </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Cunha</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>851234570</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>82764325782</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Davi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Viana</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>851234571</v>
       </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>98734523483</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lucas Gabriel</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Conceição</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>851234572</v>
       </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>98732145632</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ana Lívia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cardoso</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>851234573</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>98732145633</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alícia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Souza</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>851234574</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>98732145634</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mota</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>851234575</v>
       </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>29</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
       </c>
     </row>
+    <row r="11"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Tecnicos.xlsx
+++ b/Tecnicos.xlsx
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="A2:J10"/>
@@ -896,7 +896,327 @@
         </is>
       </c>
     </row>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>000333000300</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zezim</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8500000</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Pessoa</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8500000000</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>03759889898</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jefferson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Pessoa</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8588888888</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0303030303</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jefferson teste</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11111111</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>111111111111</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>teste</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1111111</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1111122222</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Jose</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>111111111</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>122244414</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pedro</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>84444444</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>111111111</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sobral</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>prof</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>111111111</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
